--- a/output_xlsx/model-2-23-07-2021.xlsx
+++ b/output_xlsx/model-2-23-07-2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>sepeda motor</t>
   </si>
@@ -34,10 +34,13 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2021-07-23</t>
   </si>
   <si>
-    <t>08:53:00</t>
+    <t>11:06:00</t>
   </si>
 </sst>
 </file>
@@ -397,16 +400,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
